--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio camilo\Documents\Sergio Pech-Residencia\Programas\Graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9F3410-8CC8-4364-A2EB-8C9CE9CE4D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68CCEA9-FA7C-485A-822B-47A56E49FCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11316" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11292" uniqueCount="1575">
   <si>
     <t>MUNICIPIO</t>
   </si>
@@ -4745,15 +4745,6 @@
   </si>
   <si>
     <t>ENTIDAD_FEDERATIVA</t>
-  </si>
-  <si>
-    <t>ELIMINAR</t>
-  </si>
-  <si>
-    <t>INFORMATICA</t>
-  </si>
-  <si>
-    <t>SISTEMAS DE INFORMACION</t>
   </si>
 </sst>
 </file>
@@ -5116,10 +5107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1882"/>
+  <dimension ref="A1:L1882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1171" workbookViewId="0">
-      <selection activeCell="M1173" sqref="M1173"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5132,7 +5123,7 @@
     <col min="12" max="12" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1574</v>
       </c>
@@ -5170,7 +5161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5207,11 +5198,8 @@
       <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5249,7 +5237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5287,7 +5275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5325,7 +5313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5363,7 +5351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5401,7 +5389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5439,7 +5427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5477,7 +5465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -5515,7 +5503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -5553,7 +5541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -5591,7 +5579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -5629,7 +5617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -5667,7 +5655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -5705,7 +5693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -5741,9 +5729,6 @@
       </c>
       <c r="L16" t="s">
         <v>9</v>
-      </c>
-      <c r="M16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -8178,7 +8163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -8216,7 +8201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -8254,7 +8239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -8291,11 +8276,8 @@
       <c r="L83" t="s">
         <v>9</v>
       </c>
-      <c r="M83" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -8333,7 +8315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -8371,7 +8353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -8409,7 +8391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -8447,7 +8429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -8485,7 +8467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -8523,7 +8505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -8561,7 +8543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -8599,7 +8581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -8637,7 +8619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -8675,7 +8657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -8713,7 +8695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -8751,7 +8733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -8789,7 +8771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -8827,7 +8809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -8865,7 +8847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -8903,7 +8885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -8941,7 +8923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>128</v>
       </c>
@@ -8979,7 +8961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>128</v>
       </c>
@@ -9017,7 +8999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>128</v>
       </c>
@@ -9055,7 +9037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>128</v>
       </c>
@@ -9093,7 +9075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>128</v>
       </c>
@@ -9131,7 +9113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -9168,11 +9150,8 @@
       <c r="L106" t="s">
         <v>9</v>
       </c>
-      <c r="M106" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -9210,7 +9189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -9248,7 +9227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -9286,7 +9265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -9324,7 +9303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -9362,7 +9341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -9400,7 +9379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -9438,7 +9417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -9476,7 +9455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -9514,7 +9493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -9551,11 +9530,8 @@
       <c r="L116" t="s">
         <v>9</v>
       </c>
-      <c r="M116" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -9593,7 +9569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>128</v>
       </c>
@@ -9631,7 +9607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -9669,7 +9645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -9707,7 +9683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -9745,7 +9721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -9783,7 +9759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -9821,7 +9797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -9859,7 +9835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -9897,7 +9873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -9935,7 +9911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -9973,7 +9949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -10009,9 +9985,6 @@
       </c>
       <c r="L128" t="s">
         <v>9</v>
-      </c>
-      <c r="M128" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -11230,7 +11203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>128</v>
       </c>
@@ -11267,11 +11240,8 @@
       <c r="L161" t="s">
         <v>9</v>
       </c>
-      <c r="M161" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>128</v>
       </c>
@@ -11309,7 +11279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>128</v>
       </c>
@@ -11347,7 +11317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>128</v>
       </c>
@@ -11385,7 +11355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>128</v>
       </c>
@@ -11423,7 +11393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>128</v>
       </c>
@@ -11461,7 +11431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>128</v>
       </c>
@@ -11499,7 +11469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>128</v>
       </c>
@@ -11537,7 +11507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>128</v>
       </c>
@@ -11575,7 +11545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>128</v>
       </c>
@@ -11613,7 +11583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>128</v>
       </c>
@@ -11651,7 +11621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>128</v>
       </c>
@@ -11688,11 +11658,8 @@
       <c r="L172" t="s">
         <v>9</v>
       </c>
-      <c r="M172" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>128</v>
       </c>
@@ -11730,7 +11697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>128</v>
       </c>
@@ -11768,7 +11735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>128</v>
       </c>
@@ -11806,7 +11773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>128</v>
       </c>
@@ -12452,7 +12419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>128</v>
       </c>
@@ -12490,7 +12457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>128</v>
       </c>
@@ -12528,7 +12495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>128</v>
       </c>
@@ -12566,7 +12533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>128</v>
       </c>
@@ -12604,7 +12571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>128</v>
       </c>
@@ -12642,7 +12609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>128</v>
       </c>
@@ -12680,7 +12647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>128</v>
       </c>
@@ -12717,11 +12684,8 @@
       <c r="L199" t="s">
         <v>9</v>
       </c>
-      <c r="M199" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>128</v>
       </c>
@@ -12759,7 +12723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>128</v>
       </c>
@@ -12797,7 +12761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>128</v>
       </c>
@@ -12835,7 +12799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>128</v>
       </c>
@@ -12873,7 +12837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>128</v>
       </c>
@@ -12910,11 +12874,8 @@
       <c r="L204" t="s">
         <v>9</v>
       </c>
-      <c r="M204" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>128</v>
       </c>
@@ -12952,7 +12913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>128</v>
       </c>
@@ -12990,7 +12951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>128</v>
       </c>
@@ -13028,7 +12989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>128</v>
       </c>
@@ -15498,7 +15459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>211</v>
       </c>
@@ -15536,7 +15497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>211</v>
       </c>
@@ -15574,7 +15535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>211</v>
       </c>
@@ -15612,7 +15573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>248</v>
       </c>
@@ -15650,7 +15611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>248</v>
       </c>
@@ -15688,7 +15649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>248</v>
       </c>
@@ -15726,7 +15687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>248</v>
       </c>
@@ -15764,7 +15725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>248</v>
       </c>
@@ -15802,7 +15763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>248</v>
       </c>
@@ -15840,7 +15801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>248</v>
       </c>
@@ -15878,7 +15839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>248</v>
       </c>
@@ -15916,7 +15877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>248</v>
       </c>
@@ -15954,7 +15915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>248</v>
       </c>
@@ -15992,7 +15953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>248</v>
       </c>
@@ -16030,7 +15991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>248</v>
       </c>
@@ -16067,11 +16028,8 @@
       <c r="L287" t="s">
         <v>9</v>
       </c>
-      <c r="M287" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>248</v>
       </c>
@@ -19757,7 +19715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>323</v>
       </c>
@@ -19795,7 +19753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>323</v>
       </c>
@@ -19833,7 +19791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>323</v>
       </c>
@@ -19871,7 +19829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>323</v>
       </c>
@@ -19908,11 +19866,8 @@
       <c r="L388" t="s">
         <v>9</v>
       </c>
-      <c r="M388" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>323</v>
       </c>
@@ -19950,7 +19905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>323</v>
       </c>
@@ -19988,7 +19943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>323</v>
       </c>
@@ -20026,7 +19981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>323</v>
       </c>
@@ -20064,7 +20019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>323</v>
       </c>
@@ -20102,7 +20057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>323</v>
       </c>
@@ -20140,7 +20095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>323</v>
       </c>
@@ -20178,7 +20133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>323</v>
       </c>
@@ -20216,7 +20171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>323</v>
       </c>
@@ -20254,7 +20209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>323</v>
       </c>
@@ -20292,7 +20247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>323</v>
       </c>
@@ -20330,7 +20285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>323</v>
       </c>
@@ -20368,7 +20323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>323</v>
       </c>
@@ -20406,7 +20361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>323</v>
       </c>
@@ -20443,11 +20398,8 @@
       <c r="L402" t="s">
         <v>9</v>
       </c>
-      <c r="M402" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>323</v>
       </c>
@@ -20485,7 +20437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>323</v>
       </c>
@@ -20523,7 +20475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>323</v>
       </c>
@@ -20560,11 +20512,8 @@
       <c r="L405" t="s">
         <v>9</v>
       </c>
-      <c r="M405" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>323</v>
       </c>
@@ -20602,7 +20551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>323</v>
       </c>
@@ -20640,7 +20589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>323</v>
       </c>
@@ -20678,7 +20627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>323</v>
       </c>
@@ -20716,7 +20665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>323</v>
       </c>
@@ -20754,7 +20703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>323</v>
       </c>
@@ -20792,7 +20741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>323</v>
       </c>
@@ -20830,7 +20779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>323</v>
       </c>
@@ -20868,7 +20817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>323</v>
       </c>
@@ -20906,7 +20855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>323</v>
       </c>
@@ -20944,7 +20893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>323</v>
       </c>
@@ -27670,7 +27619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>447</v>
       </c>
@@ -27708,7 +27657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>447</v>
       </c>
@@ -27746,7 +27695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>447</v>
       </c>
@@ -27784,7 +27733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>447</v>
       </c>
@@ -27822,7 +27771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>447</v>
       </c>
@@ -27860,7 +27809,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>447</v>
       </c>
@@ -27898,7 +27847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>447</v>
       </c>
@@ -27936,7 +27885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>447</v>
       </c>
@@ -27974,7 +27923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>447</v>
       </c>
@@ -28012,7 +27961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>447</v>
       </c>
@@ -28050,7 +27999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>447</v>
       </c>
@@ -28088,7 +28037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>447</v>
       </c>
@@ -28125,11 +28074,8 @@
       <c r="L604" t="s">
         <v>9</v>
       </c>
-      <c r="M604" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>447</v>
       </c>
@@ -28167,7 +28113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>447</v>
       </c>
@@ -28205,7 +28151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>447</v>
       </c>
@@ -28243,7 +28189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>447</v>
       </c>
@@ -28889,7 +28835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>229</v>
       </c>
@@ -28927,7 +28873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>229</v>
       </c>
@@ -28965,7 +28911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>229</v>
       </c>
@@ -29003,7 +28949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>229</v>
       </c>
@@ -29041,7 +28987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>229</v>
       </c>
@@ -29079,7 +29025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>229</v>
       </c>
@@ -29117,7 +29063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>229</v>
       </c>
@@ -29155,7 +29101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>229</v>
       </c>
@@ -29193,7 +29139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>229</v>
       </c>
@@ -29230,11 +29176,8 @@
       <c r="L633" t="s">
         <v>9</v>
       </c>
-      <c r="M633" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>229</v>
       </c>
@@ -29272,7 +29215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>229</v>
       </c>
@@ -29310,7 +29253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>229</v>
       </c>
@@ -29348,7 +29291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>229</v>
       </c>
@@ -29385,11 +29328,8 @@
       <c r="L637" t="s">
         <v>9</v>
       </c>
-      <c r="M637" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>229</v>
       </c>
@@ -29427,7 +29367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>229</v>
       </c>
@@ -29465,7 +29405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>229</v>
       </c>
@@ -31935,7 +31875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>614</v>
       </c>
@@ -31973,7 +31913,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>614</v>
       </c>
@@ -32011,7 +31951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>614</v>
       </c>
@@ -32049,7 +31989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>614</v>
       </c>
@@ -32087,7 +32027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>614</v>
       </c>
@@ -32124,11 +32064,8 @@
       <c r="L709" t="s">
         <v>9</v>
       </c>
-      <c r="M709" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>614</v>
       </c>
@@ -32166,7 +32103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>614</v>
       </c>
@@ -32204,7 +32141,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>614</v>
       </c>
@@ -32242,7 +32179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>614</v>
       </c>
@@ -32280,7 +32217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>614</v>
       </c>
@@ -32318,7 +32255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>614</v>
       </c>
@@ -32356,7 +32293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>614</v>
       </c>
@@ -32394,7 +32331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>614</v>
       </c>
@@ -32432,7 +32369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>614</v>
       </c>
@@ -32470,7 +32407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>614</v>
       </c>
@@ -32508,7 +32445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>614</v>
       </c>
@@ -34978,7 +34915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>680</v>
       </c>
@@ -35016,7 +34953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>680</v>
       </c>
@@ -35054,7 +34991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>680</v>
       </c>
@@ -35092,7 +35029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>680</v>
       </c>
@@ -35130,7 +35067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>680</v>
       </c>
@@ -35168,7 +35105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>680</v>
       </c>
@@ -35206,7 +35143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>680</v>
       </c>
@@ -35244,7 +35181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>680</v>
       </c>
@@ -35282,7 +35219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>680</v>
       </c>
@@ -35319,11 +35256,8 @@
       <c r="L793" t="s">
         <v>9</v>
       </c>
-      <c r="M793" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="794" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>680</v>
       </c>
@@ -35361,7 +35295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>680</v>
       </c>
@@ -35399,7 +35333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>680</v>
       </c>
@@ -35437,7 +35371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>680</v>
       </c>
@@ -35475,7 +35409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>680</v>
       </c>
@@ -35513,7 +35447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>680</v>
       </c>
@@ -35551,7 +35485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>680</v>
       </c>
@@ -47141,7 +47075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
         <v>928</v>
       </c>
@@ -47179,7 +47113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
         <v>928</v>
       </c>
@@ -47216,11 +47150,8 @@
       <c r="L1106" t="s">
         <v>9</v>
       </c>
-      <c r="M1106" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
         <v>928</v>
       </c>
@@ -47258,7 +47189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
         <v>928</v>
       </c>
@@ -47296,7 +47227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
         <v>928</v>
       </c>
@@ -47334,7 +47265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
         <v>928</v>
       </c>
@@ -47372,7 +47303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
         <v>928</v>
       </c>
@@ -47410,7 +47341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
         <v>928</v>
       </c>
@@ -47448,7 +47379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
         <v>928</v>
       </c>
@@ -47486,7 +47417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
         <v>928</v>
       </c>
@@ -47524,7 +47455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
         <v>928</v>
       </c>
@@ -47562,7 +47493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
         <v>928</v>
       </c>
@@ -47600,7 +47531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
         <v>928</v>
       </c>
@@ -47638,7 +47569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
         <v>928</v>
       </c>
@@ -47676,7 +47607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
         <v>928</v>
       </c>
@@ -47714,7 +47645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
         <v>928</v>
       </c>
@@ -49576,7 +49507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
         <v>928</v>
       </c>
@@ -49614,7 +49545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
         <v>928</v>
       </c>
@@ -49652,7 +49583,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
         <v>928</v>
       </c>
@@ -49690,7 +49621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
         <v>928</v>
       </c>
@@ -49728,7 +49659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
         <v>928</v>
       </c>
@@ -49766,7 +49697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
         <v>928</v>
       </c>
@@ -49804,7 +49735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
         <v>928</v>
       </c>
@@ -49842,7 +49773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
         <v>987</v>
       </c>
@@ -49880,7 +49811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
         <v>987</v>
       </c>
@@ -49918,7 +49849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
         <v>987</v>
       </c>
@@ -49956,7 +49887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
         <v>987</v>
       </c>
@@ -49994,7 +49925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
         <v>987</v>
       </c>
@@ -50031,11 +49962,8 @@
       <c r="L1180" t="s">
         <v>9</v>
       </c>
-      <c r="M1180" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
         <v>987</v>
       </c>
@@ -50073,7 +50001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
         <v>987</v>
       </c>
@@ -50111,7 +50039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
         <v>987</v>
       </c>
@@ -50149,7 +50077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
         <v>987</v>
       </c>
@@ -50795,7 +50723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
         <v>987</v>
       </c>
@@ -50833,7 +50761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
         <v>987</v>
       </c>
@@ -50871,7 +50799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
         <v>987</v>
       </c>
@@ -50909,7 +50837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
         <v>987</v>
       </c>
@@ -50946,11 +50874,8 @@
       <c r="L1204" t="s">
         <v>9</v>
       </c>
-      <c r="M1204" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
         <v>987</v>
       </c>
@@ -50988,7 +50913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
         <v>987</v>
       </c>
@@ -51026,7 +50951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
         <v>987</v>
       </c>
@@ -51064,7 +50989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
         <v>987</v>
       </c>
@@ -51102,7 +51027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
         <v>987</v>
       </c>
@@ -51139,11 +51064,8 @@
       <c r="L1209" t="s">
         <v>9</v>
       </c>
-      <c r="M1209" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
         <v>987</v>
       </c>
@@ -51181,7 +51103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
         <v>987</v>
       </c>
@@ -51219,7 +51141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
         <v>987</v>
       </c>
@@ -51257,7 +51179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
         <v>987</v>
       </c>
@@ -51295,7 +51217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
         <v>987</v>
       </c>
@@ -51333,7 +51255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
         <v>987</v>
       </c>
@@ -51371,7 +51293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
         <v>987</v>
       </c>
@@ -51409,7 +51331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
         <v>987</v>
       </c>
@@ -51447,7 +51369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
         <v>987</v>
       </c>
@@ -51485,7 +51407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
         <v>987</v>
       </c>
@@ -51523,7 +51445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
         <v>987</v>
       </c>
@@ -51560,11 +51482,8 @@
       <c r="L1220" t="s">
         <v>9</v>
       </c>
-      <c r="M1220" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
         <v>987</v>
       </c>
@@ -51602,7 +51521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
         <v>987</v>
       </c>
@@ -51640,7 +51559,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="1223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
         <v>987</v>
       </c>
@@ -51678,7 +51597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
         <v>987</v>
       </c>
@@ -51716,7 +51635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
         <v>987</v>
       </c>
@@ -51754,7 +51673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
         <v>987</v>
       </c>
@@ -51792,7 +51711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
         <v>987</v>
       </c>
@@ -51830,7 +51749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
         <v>1049</v>
       </c>
@@ -51868,7 +51787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
         <v>1049</v>
       </c>
@@ -51906,7 +51825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
         <v>1049</v>
       </c>
@@ -51944,7 +51863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
         <v>1049</v>
       </c>
@@ -51982,7 +51901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
         <v>1049</v>
       </c>
